--- a/Documents/List of deliverablesv2.xlsx
+++ b/Documents/List of deliverablesv2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hemalatha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Requested</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Delivered by Pajaniraja</t>
   </si>
   <si>
-    <t>0018339083970 - is configured the contact flow in my account. Reviewer can call this number and go ahead with the flow. I will keep this until 15th May 21 without any alteration.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -95,12 +92,6 @@
       </rPr>
       <t xml:space="preserve"> - lambda created and it takes the caller phone number and generate the vanity by considering the last seven digits. There are many business scenarios to find best for them. I took the option, let the MVP go with minimum meaningful seven letter  words in English Dictionary</t>
     </r>
-  </si>
-  <si>
-    <t>CallerVanity- Caller can follow the simple flow and generate the vanity for his contact number and can hear the vanity generated for him. Provided option to hear once again without calling again. Usual error handling and exit options are available.</t>
-  </si>
-  <si>
-    <t>SAM package is available in the Git and instruction given to download the files and deploy over SAM CLI</t>
   </si>
   <si>
     <t xml:space="preserve">Sam deployment file, Instructions, Documents requested on point 6, Additionally the html+css file used for Super Bonus, PlanB: Exported code of Contactflow, Lambdas and DynamoDB schema
@@ -108,19 +99,133 @@
 Access provided to: </t>
   </si>
   <si>
-    <t>A webpage created with grid to show the details of created vanities. By default the grid sorted according to the latest timestamp. User can see the latest 5 caller's vanities. Additionaly the grid has pagination, search and options to sort all the fields. The HTML and CSS added in the git repo. Once you downloaded in your local system, you can open and see the vanities. Currently it is using the API pointed to my dynamoDB available in my account. So, the caller using the phone number provided by me to do the testing, can see the result in this page. If you want to run locally,  you have to create API and replace the existing.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Provided the details in a document and added in the git repo
-1. There is no end for any of the projects in this world, still MS Excel is growing. So scope of the project is important. As the timeline are already definedm I decided to go with the MVP of the project in all aspects like functionalities, user experience etc. I take last seven digits of the caller and implemented the solution as requested. Now if you want to proceed further it will be easy to add other requirements like last 6 digits, last 5 digits, in between any number of digits. As all the logics are availablem it will be easy for the team to enchance further. When comes to the challenges, I was not aware of the concept of vanity. So I understood the concept and started the designing. Another one, initially I was using nltk package in python to fetch the words from the dictionary. It was giving lot of problems while including in lambda and consuming 4 MB of lambda space. After spending half of the day only on this, I replaced this package with another library, English Words.
 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0018339083970 -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is configured the contact flow in my account. Reviewer can call this number and go ahead with the flow. I will keep this until 15th May 21 without any alteration.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CallerVanity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Caller can follow the simple flow and generate the vanity for his contact number and can hear the vanity generated for him. Provided option to hear once again without calling again. Usual error handling and exit options are available.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Custom resource</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> created for Lambda and related files - lamba and cfnresponse are place in Git repo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAM package</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is available in the Git and instruction given to download the files and deploy over SAM CLI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>webpage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> created with grid to show the details of created vanities. By default the grid sorted according to the latest timestamp. User can see the latest 5 caller's vanities. Additionaly the grid has pagination, search and options to sort all the fields. The HTML and CSS added in the git repo. Once you downloaded in your local system, you can open and see the vanities. Currently it is using the API pointed to my dynamoDB available in my account. So, the caller using the phone number provided by me to do the testing, can see the result in this page. If you want to run locally,  you have to create API and replace the existing.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +236,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -204,23 +317,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -231,6 +331,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,114 +623,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="66.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="62" style="8" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="66.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="62" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="3:5" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="3:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="3:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="3:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="3:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="3:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="3:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="3:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="3:5" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="C13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="4"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
